--- a/settings/inventory/pipes_state_template.xlsx
+++ b/settings/inventory/pipes_state_template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoeTon\IdeaProjects\VSE_PipeCleaner_2\settings\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D8ABE5-9E9E-4A1F-A4B1-03C247F4FD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5879BB3B-B56B-4E6D-B4F5-F236DB78C54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{F104A0B3-2908-4713-92DB-B34F6C7F4C0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{F104A0B3-2908-4713-92DB-B34F6C7F4C0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Pipe Name</t>
   </si>
@@ -60,10 +60,16 @@
     <t>Pipe Owner</t>
   </si>
   <si>
-    <t>TRRs</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>Pipe TRRs</t>
+  </si>
+  <si>
+    <t>Blade TRR - State</t>
+  </si>
+  <si>
+    <t>Blade TRR - Number</t>
+  </si>
+  <si>
+    <t>Pipe Status</t>
   </si>
 </sst>
 </file>
@@ -113,14 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,67 +441,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90568C40-FCCF-46DA-810D-78DF72ACFB7F}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="8" width="24.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="28.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G10" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{90568C40-FCCF-46DA-810D-78DF72ACFB7F}"/>
+  <autoFilter ref="A1:K1" xr:uid="{90568C40-FCCF-46DA-810D-78DF72ACFB7F}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
